--- a/c5-corr-regressao/TestePearson_TesteSpearman_RegrLinear.xlsx
+++ b/c5-corr-regressao/TestePearson_TesteSpearman_RegrLinear.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac61560062892758/Documentos/BIOESTATÍSTICA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c5-corr-regressao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{BA6DB95A-FEAF-4E33-9BB7-37AD85FFBD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF15885E-BF7A-4EC9-BE04-806DB2A4D38F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69389113-DD32-4EE2-BDAD-36DF53BBA34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" tabRatio="836" xr2:uid="{AC7F1B13-9EB4-4309-B3BA-DB1671F5B39E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="836" activeTab="2" xr2:uid="{AC7F1B13-9EB4-4309-B3BA-DB1671F5B39E}"/>
   </bookViews>
   <sheets>
-    <sheet name="calculadoraCorrelacaoPearson" sheetId="11" r:id="rId1"/>
-    <sheet name="calculadoraCorrelacaoSpearman" sheetId="12" r:id="rId2"/>
-    <sheet name="analiseDadosRegressãoLinear" sheetId="13" r:id="rId3"/>
+    <sheet name="Correlação de Pearson" sheetId="11" r:id="rId1"/>
+    <sheet name="Correlação de Spearman" sheetId="12" r:id="rId2"/>
+    <sheet name="Regressão Linear com menus" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">analiseDadosRegressãoLinear!$F$45</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Regressão Linear com menus'!$F$45</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Observações</t>
   </si>
@@ -159,32 +159,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Correlação de Pearson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Paramétrico)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calculadora Coeficiente de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Correlação de Spearman</t>
     </r>
     <r>
@@ -197,12 +171,6 @@
       </rPr>
       <t xml:space="preserve"> (Não Paramétrico)</t>
     </r>
-  </si>
-  <si>
-    <t>(2) as variáveis foram medidas numa escala pelo menos ordinal,</t>
-  </si>
-  <si>
-    <t>(3) a relação entre as variáveis deve ser monótona (não necessariamente linear).</t>
   </si>
   <si>
     <t>H0 : As variáveis não são correlacionadas.</t>
@@ -224,32 +192,6 @@
   </si>
   <si>
     <t>a.X</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Análise Avançada </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Regressão Linear</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Ferramenta Análise de Dados, Separador Dados</t>
-    </r>
   </si>
   <si>
     <t>2. Escolher o tipo Regressão.</t>
@@ -522,6 +464,90 @@
   <si>
     <t>Rank Y</t>
   </si>
+  <si>
+    <t>declive</t>
+  </si>
+  <si>
+    <t>interceptar</t>
+  </si>
+  <si>
+    <t>(2) as variáveis foram medidas numa escala pelo menos ordinal;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) a relação entre as variáveis deve ser monótona </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(não necessariamente linear)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Coeficiente de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Correlação de Pearson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Paramétrico)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Regressão Linear com a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ferramenta Análise de Dados</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -761,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -909,6 +935,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -916,7 +951,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -984,6 +1019,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,6 +1075,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1140,7 +1190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>calculadoraCorrelacaoPearson!$D$4</c:f>
+              <c:f>'Correlação de Pearson'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,7 +1287,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoPearson!$C$5:$C$31</c:f>
+              <c:f>'Correlação de Pearson'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1327,7 +1377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoPearson!$D$5:$D$31</c:f>
+              <c:f>'Correlação de Pearson'!$D$5:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1780,7 +1830,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoPearson!$C$5:$C$31</c:f>
+              <c:f>'Correlação de Pearson'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1870,7 +1920,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoPearson!$D$5:$D$31</c:f>
+              <c:f>'Correlação de Pearson'!$D$5:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2237,7 +2287,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>calculadoraCorrelacaoSpearman!$D$4</c:f>
+              <c:f>'Correlação de Spearman'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2334,7 +2384,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoSpearman!$C$5:$C$31</c:f>
+              <c:f>'Correlação de Spearman'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2385,7 +2435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoSpearman!$D$5:$D$31</c:f>
+              <c:f>'Correlação de Spearman'!$D$5:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2799,7 +2849,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoSpearman!$I$17:$I$30</c:f>
+              <c:f>'Correlação de Spearman'!$I$17:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2850,7 +2900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>calculadoraCorrelacaoSpearman!$J$17:$J$30</c:f>
+              <c:f>'Correlação de Spearman'!$J$17:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3148,7 +3198,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>analiseDadosRegressãoLinear!$L$44</c:f>
+              <c:f>'Regressão Linear com menus'!$L$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3181,7 +3231,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>analiseDadosRegressãoLinear!$K$45:$K$68</c:f>
+              <c:f>'Regressão Linear com menus'!$K$45:$K$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3262,7 +3312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>analiseDadosRegressãoLinear!$L$45:$L$68</c:f>
+              <c:f>'Regressão Linear com menus'!$L$45:$L$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7381,48 +7431,48 @@
   </sheetPr>
   <dimension ref="B2:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="3" style="4" customWidth="1"/>
-    <col min="6" max="7" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="4" customWidth="1"/>
     <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="6.28515625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
@@ -7430,7 +7480,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
     </row>
-    <row r="4" spans="2:24" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>15</v>
       </c>
@@ -7441,28 +7491,28 @@
         <v>14</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="37">
         <v>1</v>
       </c>
@@ -7473,26 +7523,26 @@
         <v>5</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="37">
         <v>2</v>
       </c>
@@ -7503,26 +7553,26 @@
         <v>10</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="37">
         <v>3</v>
       </c>
@@ -7533,15 +7583,15 @@
         <v>7</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="37">
         <v>4</v>
       </c>
@@ -7553,7 +7603,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="37">
         <v>5</v>
       </c>
@@ -7564,21 +7614,21 @@
         <v>8</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="37">
         <v>6</v>
       </c>
@@ -7589,14 +7639,14 @@
         <v>5</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="37">
         <v>7</v>
       </c>
@@ -7607,14 +7657,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="37">
         <v>8</v>
       </c>
@@ -7625,14 +7675,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="37">
         <v>9</v>
       </c>
@@ -7644,7 +7694,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="37">
         <v>10</v>
       </c>
@@ -7655,21 +7705,21 @@
         <v>3</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F14" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="37">
         <v>11</v>
       </c>
@@ -7681,10 +7731,10 @@
       </c>
       <c r="E15" s="9"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="2:24" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37">
         <v>12</v>
       </c>
@@ -7696,11 +7746,11 @@
       </c>
       <c r="E16" s="8"/>
       <c r="G16" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="37">
         <v>13</v>
       </c>
@@ -7712,14 +7762,14 @@
       </c>
       <c r="E17" s="9"/>
       <c r="G17" s="31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H17" s="18">
         <f>PEARSON(C5:C31,D5:D31)</f>
         <v>-0.15469757211913193</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="37">
         <v>14</v>
       </c>
@@ -7731,14 +7781,14 @@
       </c>
       <c r="E18" s="8"/>
       <c r="G18" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" s="18">
         <f>CORREL(D5:D31,C5:C31)^2</f>
         <v>2.3931338819554025E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37">
         <v>15</v>
       </c>
@@ -7750,7 +7800,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="20" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="H19" s="18">
         <f>SLOPE(D5:D31,C5:C31)</f>
@@ -7759,7 +7809,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="37">
         <v>16</v>
       </c>
@@ -7771,7 +7821,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="G20" s="19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" s="18">
         <f>INTERCEPT(D5:D31,C5:C31)</f>
@@ -7780,7 +7830,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="37">
         <v>17</v>
       </c>
@@ -7799,7 +7849,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="37">
         <v>18</v>
       </c>
@@ -7811,7 +7861,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="G22" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H22" s="33">
         <v>0.05</v>
@@ -7824,7 +7874,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="37">
         <v>19</v>
       </c>
@@ -7836,7 +7886,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="G23" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H23" s="18">
         <f>COUNT(C5:C31)</f>
@@ -7850,7 +7900,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="37">
         <v>20</v>
       </c>
@@ -7862,7 +7912,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="G24" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H24" s="18">
         <f>H17/SQRT((1-H17^2)/(H23-2))</f>
@@ -7876,7 +7926,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="37">
         <v>21</v>
       </c>
@@ -7888,7 +7938,7 @@
       </c>
       <c r="E25" s="9"/>
       <c r="G25" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H25" s="18">
         <f>1-_xlfn.BETA.DIST((ABS(H24)^2*1/(H23-2))/(1+ABS(H24)^2*1/(H23-2)),1/2,(H23-2)/2,1)</f>
@@ -7902,7 +7952,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="37">
         <v>22</v>
       </c>
@@ -7914,7 +7964,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="G26" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H26" s="18">
         <f>H17-SQRT((1-H17^2)/(H23-2))*SQRT(_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2)*(H23-2)/(1*(1-_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2))))</f>
@@ -7928,7 +7978,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="2:16" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37">
         <v>23</v>
       </c>
@@ -7940,7 +7990,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="G27" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H27" s="18">
         <f>H17+SQRT((1-H17^2)/(H23-2))*SQRT(_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2)*(H23-2)/(1*(1-_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2))))</f>
@@ -7955,7 +8005,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="2:16" ht="20.3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B28" s="37">
         <v>24</v>
       </c>
@@ -7975,7 +8025,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37">
         <v>25</v>
       </c>
@@ -7994,7 +8044,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37">
         <v>26</v>
       </c>
@@ -8013,7 +8063,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37">
         <v>27</v>
       </c>
@@ -8032,7 +8082,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -8041,12 +8091,12 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="41" t="s">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -8055,7 +8105,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -8064,7 +8114,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -8073,7 +8123,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -8082,7 +8132,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -8091,26 +8141,26 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F60" s="38" t="s">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-    </row>
-    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="6:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -8147,88 +8197,88 @@
   <dimension ref="B2:X63"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
     <col min="5" max="5" width="3" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="6.28515625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
       <c r="V2" s="13"/>
     </row>
-    <row r="4" spans="2:24" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -8239,26 +8289,29 @@
         <v>91</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -8269,26 +8322,29 @@
         <v>89</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="F6" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -8299,15 +8355,15 @@
         <v>101</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F7" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -8319,7 +8375,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -8330,26 +8386,26 @@
         <v>88</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -8361,13 +8417,13 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -8378,14 +8434,14 @@
         <v>88</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -8396,14 +8452,14 @@
         <v>86</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F12" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -8415,7 +8471,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -8426,26 +8482,26 @@
         <v>83</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -8457,10 +8513,10 @@
       </c>
       <c r="E15" s="9"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="2:24" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -8472,25 +8528,25 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -8519,7 +8575,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M17" s="18" cm="1">
         <f t="array" ref="M17">CORREL(_xlfn.RANK.AVG(G17:G30,$G$17:$G$30,0),_xlfn.RANK.AVG(H17:H30,$H$17:$H$30,0))</f>
@@ -8527,7 +8583,7 @@
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -8556,14 +8612,14 @@
         <v>4.5</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M18" s="18">
         <f>(M17)^2</f>
         <v>0.30618382585335013</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -8586,19 +8642,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M19" s="18" cm="1">
         <f t="array" ref="M19">SLOPE(_xlfn.RANK.AVG(H17:H30,$H$17:$H$30,0),_xlfn.RANK.AVG(G17:G30,$G$17:$G$30,0))</f>
         <v>0.55088495575221241</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="41" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="8"/>
       <c r="F20" s="34">
         <v>4</v>
@@ -8618,14 +8674,14 @@
         <v>4.5</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M20" s="18" cm="1">
         <f t="array" ref="M20">INTERCEPT(_xlfn.RANK.AVG(H17:H30,$H$17:$H$30,0),_xlfn.RANK.AVG(G17:G30,$G$17:$G$30,0))</f>
         <v>3.3683628318584073</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -8654,7 +8710,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -8678,7 +8734,7 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M22" s="33">
         <v>0.05</v>
@@ -8687,7 +8743,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -8711,7 +8767,7 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M23" s="18">
         <f>COUNT(G17:G30)</f>
@@ -8721,7 +8777,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -8745,7 +8801,7 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M24" s="18">
         <f>M17/SQRT((1-M17^2)/(M23-2))</f>
@@ -8755,7 +8811,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -8779,7 +8835,7 @@
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M25" s="18">
         <f>1-_xlfn.BETA.DIST((ABS(M24)^2*1/(M23-2))/(1+ABS(M24)^2*1/(M23-2)),1/2,(M23-2)/2,1)</f>
@@ -8789,7 +8845,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -8813,7 +8869,7 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M26" s="18">
         <f>M17-SQRT((1-M17^2)/(M23-2))*SQRT(_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2)*(M23-2)/(1*(1-_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2))))</f>
@@ -8823,7 +8879,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -8847,7 +8903,7 @@
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M27" s="18">
         <f>M17+SQRT((1-M17^2)/(M23-2))*SQRT(_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2)*(M23-2)/(1*(1-_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2))))</f>
@@ -8857,7 +8913,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -8886,7 +8942,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -8915,7 +8971,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8944,7 +9000,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -8957,7 +9013,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -8969,7 +9025,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -8978,7 +9034,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -8987,7 +9043,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -8996,7 +9052,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -9005,7 +9061,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -9014,44 +9070,43 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F60" s="38" t="s">
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-    </row>
-    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="6:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="F4:U4"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="F9:U9"/>
     <mergeCell ref="F14:U14"/>
+    <mergeCell ref="F5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9066,80 +9121,80 @@
   </sheetPr>
   <dimension ref="B2:U68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:O4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="5" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="5"/>
+    <col min="15" max="15" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="26.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-    </row>
-    <row r="5" spans="2:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+    </row>
+    <row r="5" spans="2:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="29">
         <v>82</v>
@@ -9148,17 +9203,17 @@
         <v>15</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="K5" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K5" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="29">
         <v>92.5</v>
@@ -9166,15 +9221,15 @@
       <c r="D6" s="27">
         <v>25</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-    </row>
-    <row r="7" spans="2:21" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="29">
         <v>83.2</v>
@@ -9183,17 +9238,17 @@
         <v>17</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="K7" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29">
         <v>97.7</v>
@@ -9201,15 +9256,15 @@
       <c r="D8" s="27">
         <v>28</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="29">
         <v>131.9</v>
@@ -9218,15 +9273,15 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="29">
         <v>141.30000000000001</v>
@@ -9235,17 +9290,17 @@
         <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="29">
         <v>165.4</v>
@@ -9254,17 +9309,17 @@
         <v>50</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="K11" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K11" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="29">
         <v>140</v>
@@ -9272,15 +9327,15 @@
       <c r="D12" s="27">
         <v>46</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="29">
         <v>126.7</v>
@@ -9289,17 +9344,17 @@
         <v>37</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="K13" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K13" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="29">
         <v>97.8</v>
@@ -9307,15 +9362,15 @@
       <c r="D14" s="27">
         <v>22</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="2:21" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+    </row>
+    <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="29">
         <v>86.2</v>
@@ -9329,9 +9384,9 @@
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="2:21" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="29">
         <v>99.6</v>
@@ -9339,17 +9394,17 @@
       <c r="D16" s="27">
         <v>30</v>
       </c>
-      <c r="K16" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K16" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="29">
         <v>87</v>
@@ -9358,15 +9413,15 @@
         <v>14</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="29">
         <v>97.5</v>
@@ -9374,15 +9429,15 @@
       <c r="D18" s="27">
         <v>27</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="29">
         <v>88.2</v>
@@ -9391,17 +9446,17 @@
         <v>14</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="F19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="29">
         <v>102.7</v>
@@ -9409,15 +9464,15 @@
       <c r="D20" s="27">
         <v>30</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="29">
         <v>123</v>
@@ -9426,12 +9481,12 @@
         <v>43</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -9442,9 +9497,9 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="29">
         <v>146.30000000000001</v>
@@ -9462,9 +9517,9 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="29">
         <v>160</v>
@@ -9474,7 +9529,7 @@
       </c>
       <c r="E23" s="23"/>
       <c r="J23" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23"/>
@@ -9485,9 +9540,9 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="29">
         <v>145</v>
@@ -9496,7 +9551,7 @@
         <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K24" s="1">
         <v>0.95766679847859604</v>
@@ -9509,9 +9564,9 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="29">
         <v>131.69999999999999</v>
@@ -9521,7 +9576,7 @@
       </c>
       <c r="E25" s="23"/>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K25" s="1">
         <v>0.91712569690824386</v>
@@ -9534,9 +9589,9 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="29">
         <v>118</v>
@@ -9545,7 +9600,7 @@
         <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K26" s="1">
         <v>0.91335868313134583</v>
@@ -9558,9 +9613,9 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="29">
         <v>91.2</v>
@@ -9570,7 +9625,7 @@
       </c>
       <c r="E27" s="23"/>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1">
         <v>3.5814138201875458</v>
@@ -9583,9 +9638,9 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="29">
         <v>104.6</v>
@@ -9610,7 +9665,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="23"/>
       <c r="I29" s="25"/>
       <c r="J29"/>
@@ -9623,12 +9678,12 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="2:18" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+    <row r="30" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="I30" s="25"/>
       <c r="J30" t="s">
         <v>3</v>
@@ -9642,7 +9697,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="23"/>
       <c r="I31" s="26"/>
       <c r="J31" s="3"/>
@@ -9659,15 +9714,15 @@
         <v>6</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -9688,9 +9743,9 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K33" s="1">
         <v>22</v>
@@ -9707,7 +9762,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J34" s="2" t="s">
         <v>8</v>
       </c>
@@ -9724,7 +9779,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -9735,13 +9790,13 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>2</v>
@@ -9750,21 +9805,21 @@
         <v>7</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="10:18" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K37" s="1">
         <v>-19.074108994144268</v>
@@ -9791,9 +9846,9 @@
         <v>-12.080631215958221</v>
       </c>
     </row>
-    <row r="38" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J38" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K38" s="2">
         <v>0.4500013198975954</v>
@@ -9820,7 +9875,7 @@
         <v>0.50981219167521652</v>
       </c>
     </row>
-    <row r="39" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -9831,7 +9886,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
@@ -9842,7 +9897,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -9853,9 +9908,9 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -9866,7 +9921,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="10:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -9877,15 +9932,15 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J44" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -9894,7 +9949,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="10:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J45" s="1">
         <v>1</v>
       </c>
@@ -9911,7 +9966,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J46" s="1">
         <v>2</v>
       </c>
@@ -9928,7 +9983,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J47" s="1">
         <v>3</v>
       </c>
@@ -9945,7 +10000,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J48" s="1">
         <v>4</v>
       </c>
@@ -9962,7 +10017,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J49" s="1">
         <v>5</v>
       </c>
@@ -9979,7 +10034,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J50" s="1">
         <v>6</v>
       </c>
@@ -9996,7 +10051,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J51" s="1">
         <v>7</v>
       </c>
@@ -10013,7 +10068,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J52" s="1">
         <v>8</v>
       </c>
@@ -10030,7 +10085,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J53" s="1">
         <v>9</v>
       </c>
@@ -10047,7 +10102,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J54" s="1">
         <v>10</v>
       </c>
@@ -10064,7 +10119,7 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J55" s="1">
         <v>11</v>
       </c>
@@ -10081,7 +10136,7 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J56" s="1">
         <v>12</v>
       </c>
@@ -10098,7 +10153,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J57" s="1">
         <v>13</v>
       </c>
@@ -10115,7 +10170,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J58" s="1">
         <v>14</v>
       </c>
@@ -10132,7 +10187,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J59" s="1">
         <v>15</v>
       </c>
@@ -10149,7 +10204,7 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J60" s="1">
         <v>16</v>
       </c>
@@ -10166,7 +10221,7 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J61" s="1">
         <v>17</v>
       </c>
@@ -10183,7 +10238,7 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J62" s="1">
         <v>18</v>
       </c>
@@ -10200,7 +10255,7 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J63" s="1">
         <v>19</v>
       </c>
@@ -10217,7 +10272,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J64" s="1">
         <v>20</v>
       </c>
@@ -10234,7 +10289,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J65" s="1">
         <v>21</v>
       </c>
@@ -10251,7 +10306,7 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J66" s="1">
         <v>22</v>
       </c>
@@ -10268,7 +10323,7 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J67" s="1">
         <v>23</v>
       </c>
@@ -10285,7 +10340,7 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J68" s="2">
         <v>24</v>
       </c>

--- a/c5-corr-regressao/TestePearson_TesteSpearman_RegrLinear.xlsx
+++ b/c5-corr-regressao/TestePearson_TesteSpearman_RegrLinear.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c5-corr-regressao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69389113-DD32-4EE2-BDAD-36DF53BBA34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC56164-0C2F-458B-A6EB-7D97B6006B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="836" activeTab="2" xr2:uid="{AC7F1B13-9EB4-4309-B3BA-DB1671F5B39E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="836" activeTab="1" xr2:uid="{AC7F1B13-9EB4-4309-B3BA-DB1671F5B39E}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlação de Pearson" sheetId="11" r:id="rId1"/>
     <sheet name="Correlação de Spearman" sheetId="12" r:id="rId2"/>
     <sheet name="Regressão Linear com menus" sheetId="13" r:id="rId3"/>
+    <sheet name="Regressão Linear com instruções" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>Observações</t>
   </si>
@@ -105,9 +106,6 @@
     <t>Exemplo 1.</t>
   </si>
   <si>
-    <t>Exemplo 2.</t>
-  </si>
-  <si>
     <t>Peso</t>
   </si>
   <si>
@@ -139,9 +137,6 @@
   </si>
   <si>
     <t>H1 : As variáveis são (linearmente) dependentes.</t>
-  </si>
-  <si>
-    <t>Função do excel com resultado do exemplo 2.:</t>
   </si>
   <si>
     <t>H0 : As variáveis são independentes.</t>
@@ -189,9 +184,6 @@
   </si>
   <si>
     <t>R²</t>
-  </si>
-  <si>
-    <t>a.X</t>
   </si>
   <si>
     <t>2. Escolher o tipo Regressão.</t>
@@ -423,9 +415,6 @@
     </r>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Correlação de Spearman</t>
   </si>
   <si>
@@ -447,22 +436,7 @@
     <t>Upper</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Pearson:</t>
-  </si>
-  <si>
     <t>Correlação de Pearson</t>
-  </si>
-  <si>
-    <t>Rank X</t>
-  </si>
-  <si>
-    <t>Rank Y</t>
   </si>
   <si>
     <t>declive</t>
@@ -548,12 +522,69 @@
       <t>Ferramenta Análise de Dados</t>
     </r>
   </si>
+  <si>
+    <t>Inglês</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>Ajustar a seleção de células:</t>
+  </si>
+  <si>
+    <t>Coeficiente de Spearman</t>
+  </si>
+  <si>
+    <t>Alterar o exemplo</t>
+  </si>
+  <si>
+    <t>Mudar a seleção de células</t>
+  </si>
+  <si>
+    <t>Alterar valores</t>
+  </si>
+  <si>
+    <t>Inferência sobre o declive</t>
+  </si>
+  <si>
+    <t>Alterar seleção de células</t>
+  </si>
+  <si>
+    <t>Inferir sobre o coeficiente</t>
+  </si>
+  <si>
+    <t>Alterar X e Y</t>
+  </si>
+  <si>
+    <t>Para obter o gráfico</t>
+  </si>
+  <si>
+    <t>1. selecionar as duas colunas de dados</t>
+  </si>
+  <si>
+    <t>2. Inserir =&gt; Gráficos =&gt; Dispersão</t>
+  </si>
+  <si>
+    <t>3. Clique com botão direito na nuvem de pontos</t>
+  </si>
+  <si>
+    <t>4. Escolher "adicionar linha de tendência"</t>
+  </si>
+  <si>
+    <t>5. Ativar Equação, na caixa de opções</t>
+  </si>
+  <si>
+    <t>6. Mover a equação para não ficar escondida atrás da nuvem</t>
+  </si>
+  <si>
+    <t>7. Mudar os eixos: duplo clique no eixo e mudar as propriedades</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,8 +703,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,12 +727,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,12 +797,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -786,8 +813,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -944,14 +977,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -961,9 +1014,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -980,16 +1033,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -999,23 +1052,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1023,9 +1072,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,51 +1098,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Cor4" xfId="3" builtinId="44"/>
@@ -1190,7 +1263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Correlação de Pearson'!$D$4</c:f>
+              <c:f>'Correlação de Pearson'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,7 +1360,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Correlação de Pearson'!$C$5:$C$31</c:f>
+              <c:f>'Correlação de Pearson'!$B$5:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1377,7 +1450,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Correlação de Pearson'!$D$5:$D$31</c:f>
+              <c:f>'Correlação de Pearson'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1674,36 +1747,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Correlação</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> de Pearson</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1742,6 +1785,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correlação de Pearson'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comida ingerida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1776,26 +1830,12 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.41354221347331582"/>
-                  <c:y val="0.14725102070574519"/>
+                  <c:x val="-9.1319991251093607E-2"/>
+                  <c:y val="0.20052675707203266"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1811,7 +1851,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1830,7 +1870,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Correlação de Pearson'!$C$5:$C$31</c:f>
+              <c:f>'Correlação de Pearson'!$B$5:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1920,7 +1960,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Correlação de Pearson'!$D$5:$D$31</c:f>
+              <c:f>'Correlação de Pearson'!$C$5:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2011,7 +2051,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E50-44E2-B6DE-12F786B42F11}"/>
+              <c16:uniqueId val="{00000000-2238-43A7-AA67-906282A171CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2023,13 +2063,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="998758159"/>
-        <c:axId val="998761071"/>
+        <c:axId val="914157967"/>
+        <c:axId val="914163791"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="998758159"/>
+        <c:axId val="914157967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2084,12 +2125,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998761071"/>
+        <c:crossAx val="914163791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="998761071"/>
+        <c:axId val="914163791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2187,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="998758159"/>
+        <c:crossAx val="914157967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2287,17 +2328,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Correlação de Spearman'!$D$4</c:f>
+              <c:f>'Correlação de Spearman'!$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Y</c:v>
+                  <c:v>Matemática</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2384,102 +2425,17 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Correlação de Spearman'!$C$5:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>232</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'Correlação de Spearman'!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Correlação de Spearman'!$D$5:$D$31</c:f>
+              <c:f>'Correlação de Spearman'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>92</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,36 +2649,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Correlação</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> de Spearman</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2761,6 +2687,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Correlação de Spearman'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2783,168 +2720,80 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12712182852143483"/>
-                  <c:y val="0.21178587051618547"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Correlação de Spearman'!$I$17:$I$30</c:f>
+              <c:f>'Correlação de Spearman'!$E$17:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Correlação de Spearman'!$J$17:$J$30</c:f>
+              <c:f>'Correlação de Spearman'!$F$17:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,7 +2801,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-477A-4E0A-BB7B-3E705D65C7C3}"/>
+              <c16:uniqueId val="{00000000-D95A-4EEC-A896-5786732E5346}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2964,11 +2813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="993908719"/>
-        <c:axId val="993910383"/>
+        <c:axId val="919474735"/>
+        <c:axId val="919465167"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="993908719"/>
+        <c:axId val="919474735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,12 +2874,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993910383"/>
+        <c:crossAx val="919465167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="993910383"/>
+        <c:axId val="919465167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +2936,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993908719"/>
+        <c:crossAx val="919474735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3695,6 +3544,1103 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Comida ingerida</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> (em associação com o Peso)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Regressão Linear com instruções'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comida ingerida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25243110236220473"/>
+                  <c:y val="0.17721332782983656"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regressão Linear com instruções'!$C$5:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regressão Linear com instruções'!$D$5:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1D0-4701-8895-5B59FC09629E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1373721695"/>
+        <c:axId val="1373722111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1373721695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373722111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1373722111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373721695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Correlação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> de Pearson</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41354221347331582"/>
+                  <c:y val="0.14725102070574519"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Regressão Linear com instruções'!$C$5:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Regressão Linear com instruções'!$D$5:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF59-408F-96E4-87DF799A6AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="998758159"/>
+        <c:axId val="998761071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="998758159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998761071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="998761071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998758159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3895,6 +4841,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6475,17 +7501,1049 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>654627</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>5195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>384463</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>119494</xdr:rowOff>
@@ -6517,23 +8575,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>129305</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90189</xdr:rowOff>
+      <xdr:rowOff>4232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314035</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138543</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB1CC8A-B4ED-4A85-B69C-B7B093A9652D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9825AE93-6086-474C-ACF0-437C11CF0AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6558,13 +8616,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>654627</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>5195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>384463</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>119494</xdr:rowOff>
@@ -6596,23 +8654,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431221</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560916</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>597476</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD2D58E-AC38-47A2-AD2C-6AC395CA061A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3EEB93-4191-4216-812A-DA423D2AFEE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6668,8 +8726,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876217" y="922710"/>
-          <a:ext cx="6365703" cy="924792"/>
+          <a:off x="3113773" y="941909"/>
+          <a:ext cx="5690987" cy="925237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6970,8 +9028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847110" y="2026228"/>
-          <a:ext cx="3782290" cy="1446635"/>
+          <a:off x="3088822" y="2092285"/>
+          <a:ext cx="3448792" cy="1470881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7048,16 +9106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10392</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>418606</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>10389</xdr:rowOff>
+      <xdr:rowOff>64818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>706583</xdr:colOff>
+      <xdr:colOff>692976</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>128879</xdr:rowOff>
+      <xdr:rowOff>183308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7080,8 +9138,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3231573" y="4104408"/>
-          <a:ext cx="4644736" cy="3547490"/>
+          <a:off x="3085606" y="4242211"/>
+          <a:ext cx="4220441" cy="3629133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7121,6 +9179,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654627</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>384463</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>119494</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7915F2-4124-4144-8461-17C0A03FAE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129305</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C02475-6CF5-4825-B4BA-F1946552F3FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7429,759 +9568,702 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:X63"/>
+  <dimension ref="B2:W63"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3" style="4" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="6.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3" style="4" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-    </row>
-    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="36" t="s">
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="67"/>
+    </row>
+    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="37">
-        <v>1</v>
-      </c>
-      <c r="C5" s="37">
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
         <v>72</v>
       </c>
-      <c r="D5" s="37">
+      <c r="C5" s="35">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="10"/>
       <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="37">
-        <v>2</v>
-      </c>
-      <c r="C6" s="37">
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
         <v>57</v>
       </c>
-      <c r="D6" s="37">
+      <c r="C6" s="35">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="10"/>
       <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>77</v>
+      </c>
+      <c r="C7" s="35">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>51</v>
+      </c>
+      <c r="C8" s="35">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="35">
+        <v>81</v>
+      </c>
+      <c r="C9" s="35">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
+        <v>81</v>
+      </c>
+      <c r="C10" s="35">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="35">
+        <v>60</v>
+      </c>
+      <c r="C11" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="37">
+      <c r="D11" s="9"/>
+      <c r="E11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="35">
+        <v>84</v>
+      </c>
+      <c r="C12" s="35">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="35">
+        <v>57</v>
+      </c>
+      <c r="C13" s="35">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
+        <v>71</v>
+      </c>
+      <c r="C14" s="35">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
         <v>77</v>
       </c>
-      <c r="D7" s="37">
+      <c r="C15" s="35">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35">
+        <v>87</v>
+      </c>
+      <c r="C16" s="35">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="D16" s="8"/>
+      <c r="F16" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="60"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="35">
+        <v>48</v>
+      </c>
+      <c r="C17" s="35">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="18">
+        <f>PEARSON(B5:B31,C5:C31)</f>
+        <v>-0.15469757211913193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="35">
+        <v>79</v>
+      </c>
+      <c r="C18" s="35">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="F18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="18">
+        <f>CORREL(C5:C31,B5:B31)^2</f>
+        <v>2.3931338819554025E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35">
+        <v>66</v>
+      </c>
+      <c r="C19" s="35">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="F19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="18">
+        <f>SLOPE(C5:C31,B5:B31)</f>
+        <v>-2.3282002453628253E-2</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="35">
+        <v>47</v>
+      </c>
+      <c r="C20" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="37">
-        <v>51</v>
-      </c>
-      <c r="D8" s="37">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
-        <v>5</v>
-      </c>
-      <c r="C9" s="37">
-        <v>81</v>
-      </c>
-      <c r="D9" s="37">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
-        <v>6</v>
-      </c>
-      <c r="C10" s="37">
-        <v>81</v>
-      </c>
-      <c r="D10" s="37">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="37">
-        <v>7</v>
-      </c>
-      <c r="C11" s="37">
-        <v>60</v>
-      </c>
-      <c r="D11" s="37">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="37">
-        <v>8</v>
-      </c>
-      <c r="C12" s="37">
-        <v>84</v>
-      </c>
-      <c r="D12" s="37">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="37">
+      <c r="D20" s="8"/>
+      <c r="F20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="18">
+        <f>INTERCEPT(C5:C31,B5:B31)</f>
+        <v>6.8130756413308191</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="35">
+        <v>49</v>
+      </c>
+      <c r="C21" s="35">
         <v>9</v>
       </c>
-      <c r="C13" s="37">
-        <v>57</v>
-      </c>
-      <c r="D13" s="37">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="37">
-        <v>10</v>
-      </c>
-      <c r="C14" s="37">
-        <v>71</v>
-      </c>
-      <c r="D14" s="37">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="37">
-        <v>11</v>
-      </c>
-      <c r="C15" s="37">
-        <v>77</v>
-      </c>
-      <c r="D15" s="37">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37">
-        <v>12</v>
-      </c>
-      <c r="C16" s="37">
-        <v>87</v>
-      </c>
-      <c r="D16" s="37">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="G16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="37">
-        <v>13</v>
-      </c>
-      <c r="C17" s="37">
-        <v>48</v>
-      </c>
-      <c r="D17" s="37">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="G17" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="18">
-        <f>PEARSON(C5:C31,D5:D31)</f>
-        <v>-0.15469757211913193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="37">
-        <v>14</v>
-      </c>
-      <c r="C18" s="37">
-        <v>79</v>
-      </c>
-      <c r="D18" s="37">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="G18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="18">
-        <f>CORREL(D5:D31,C5:C31)^2</f>
-        <v>2.3931338819554025E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37">
-        <v>15</v>
-      </c>
-      <c r="C19" s="37">
-        <v>66</v>
-      </c>
-      <c r="D19" s="37">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="G19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="18">
-        <f>SLOPE(D5:D31,C5:C31)</f>
-        <v>-2.3282002453628253E-2</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="37">
-        <v>16</v>
-      </c>
-      <c r="C20" s="37">
-        <v>47</v>
-      </c>
-      <c r="D20" s="37">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="G20" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="18">
-        <f>INTERCEPT(D5:D31,C5:C31)</f>
-        <v>6.8130756413308191</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="37">
-        <v>17</v>
-      </c>
-      <c r="C21" s="37">
-        <v>49</v>
-      </c>
-      <c r="D21" s="37">
-        <v>9</v>
-      </c>
-      <c r="E21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="37">
-        <v>18</v>
-      </c>
-      <c r="C22" s="37">
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="35">
         <v>70</v>
       </c>
-      <c r="D22" s="37">
+      <c r="C22" s="35">
         <v>3</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="G22" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="33">
-        <v>0.05</v>
-      </c>
+      <c r="D22" s="8"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="37">
-        <v>19</v>
-      </c>
-      <c r="C23" s="37">
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="35">
         <v>47</v>
       </c>
-      <c r="D23" s="37">
+      <c r="C23" s="35">
         <v>7</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="G23" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="18">
-        <f>COUNT(C5:C31)</f>
-        <v>27</v>
-      </c>
+      <c r="D23" s="9"/>
+      <c r="F23" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="37">
-        <v>20</v>
-      </c>
-      <c r="C24" s="37">
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="35">
         <v>52</v>
       </c>
-      <c r="D24" s="37">
+      <c r="C24" s="35">
         <v>7</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="G24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="18">
-        <f>H17/SQRT((1-H17^2)/(H23-2))</f>
-        <v>-0.78291266318853425</v>
-      </c>
+      <c r="D24" s="8"/>
+      <c r="F24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="37">
-        <v>21</v>
-      </c>
-      <c r="C25" s="37">
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="35">
         <v>61</v>
       </c>
-      <c r="D25" s="37">
+      <c r="C25" s="35">
         <v>3</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="G25" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="18">
-        <f>1-_xlfn.BETA.DIST((ABS(H24)^2*1/(H23-2))/(1+ABS(H24)^2*1/(H23-2)),1/2,(H23-2)/2,1)</f>
-        <v>0.44103217355314805</v>
-      </c>
+      <c r="D25" s="9"/>
+      <c r="F25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="18">
+        <f>COUNT(B5:B31)</f>
+        <v>27</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="37">
-        <v>22</v>
-      </c>
-      <c r="C26" s="37">
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="35">
         <v>61</v>
       </c>
-      <c r="D26" s="37">
+      <c r="C26" s="35">
         <v>5</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="G26" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="18">
-        <f>H17-SQRT((1-H17^2)/(H23-2))*SQRT(_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2)*(H23-2)/(1*(1-_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2))))</f>
-        <v>-0.56164668506247695</v>
-      </c>
+      <c r="D26" s="8"/>
+      <c r="F26" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="18">
+        <f>G17/SQRT((1-G17^2)/(G25-2))</f>
+        <v>-0.78291266318853425</v>
+      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="2:16" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37">
-        <v>23</v>
-      </c>
-      <c r="C27" s="37">
+    </row>
+    <row r="27" spans="2:18" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="35">
         <v>74</v>
       </c>
-      <c r="D27" s="37">
+      <c r="C27" s="35">
         <v>3</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="G27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="18">
-        <f>H17+SQRT((1-H17^2)/(H23-2))*SQRT(_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2)*(H23-2)/(1*(1-_xlfn.BETA.INV(1-H22,1/2,(H23-2)/2))))</f>
-        <v>0.25225154082421308</v>
-      </c>
-      <c r="I27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="18">
+        <f>1-_xlfn.BETA.DIST((ABS(G26)^2*1/(G25-2))/(1+ABS(G26)^2*1/(G25-2)),1/2,(G25-2)/2,1)</f>
+        <v>0.44103217355314805</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="37">
-        <v>24</v>
-      </c>
-      <c r="C28" s="37">
+    </row>
+    <row r="28" spans="2:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="35">
         <v>51</v>
       </c>
-      <c r="D28" s="37">
+      <c r="C28" s="35">
         <v>5</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="I28" s="11"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="18">
+        <f>G17-SQRT((1-G17^2)/(G25-2))*SQRT(_xlfn.BETA.INV(1-G24,1/2,(G25-2)/2)*(G25-2)/(1*(1-_xlfn.BETA.INV(1-G24,1/2,(G25-2)/2))))</f>
+        <v>-0.56164668506247695</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37">
-        <v>25</v>
-      </c>
-      <c r="C29" s="37">
+    </row>
+    <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="35">
         <v>73</v>
       </c>
-      <c r="D29" s="37">
+      <c r="C29" s="35">
         <v>5</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="18">
+        <f>G17+SQRT((1-G17^2)/(G25-2))*SQRT(_xlfn.BETA.INV(1-G24,1/2,(G25-2)/2)*(G25-2)/(1*(1-_xlfn.BETA.INV(1-G24,1/2,(G25-2)/2))))</f>
+        <v>0.25225154082421308</v>
+      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37">
-        <v>26</v>
-      </c>
-      <c r="C30" s="37">
+    </row>
+    <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="35">
         <v>64</v>
       </c>
-      <c r="D30" s="37">
+      <c r="C30" s="35">
         <v>4</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37">
-        <v>27</v>
-      </c>
-      <c r="C31" s="37">
+    </row>
+    <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="35">
         <v>62</v>
       </c>
-      <c r="D31" s="37">
+      <c r="C31" s="35">
         <v>5</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="68"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I32" s="62" t="s">
+        <v>99</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="I33" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I34" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I35" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I36" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I37" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I38" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-    </row>
-    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I39" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E60" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+    </row>
+    <row r="61" spans="5:8" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-    </row>
-    <row r="63" spans="6:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="5:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R4:V6"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F9:P9"/>
-    <mergeCell ref="F14:P14"/>
+  <mergeCells count="17">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="Q4:U6"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8194,919 +10276,610 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:X63"/>
+  <dimension ref="B2:V63"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="3" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="13"/>
-    </row>
-    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="J15" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+    </row>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
-        <v>242</v>
-      </c>
-      <c r="D5" s="16">
-        <v>91</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="E17" s="16">
+        <v>56</v>
+      </c>
+      <c r="F17" s="16">
+        <v>66</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="59" cm="1">
+        <f t="array" ref="K17">CORREL(_xlfn.RANK.AVG(E17:E26,E17:E26,0),_xlfn.RANK.AVG(F17:F26,F17:F26,0))</f>
+        <v>0.67272727272727273</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
-        <v>240</v>
-      </c>
-      <c r="D6" s="16">
-        <v>89</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="E18" s="16">
+        <v>75</v>
+      </c>
+      <c r="F18" s="16">
+        <v>70</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="18">
+        <f>(K17)^2</f>
+        <v>0.4525619834710744</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
-        <v>248</v>
-      </c>
-      <c r="D7" s="16">
-        <v>101</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="E19" s="16">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16">
+        <v>40</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="16">
         <v>4</v>
       </c>
-      <c r="C8" s="16">
-        <v>241</v>
-      </c>
-      <c r="D8" s="16">
-        <v>89</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="E20" s="16">
+        <v>71</v>
+      </c>
+      <c r="F20" s="16">
+        <v>60</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="16">
         <v>5</v>
       </c>
-      <c r="C9" s="16">
-        <v>238</v>
-      </c>
-      <c r="D9" s="16">
-        <v>88</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16">
-        <v>239</v>
-      </c>
-      <c r="D10" s="16">
-        <v>86</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16">
-        <v>237</v>
-      </c>
-      <c r="D11" s="16">
-        <v>88</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16">
-        <v>241</v>
-      </c>
-      <c r="D12" s="16">
-        <v>86</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16">
-        <v>238</v>
-      </c>
-      <c r="D13" s="16">
-        <v>87</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16">
-        <v>236</v>
-      </c>
-      <c r="D14" s="16">
-        <v>83</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16">
-        <v>233</v>
-      </c>
-      <c r="D15" s="16">
-        <v>81</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16">
-        <v>231</v>
-      </c>
-      <c r="D16" s="16">
-        <v>83</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16">
-        <v>237</v>
-      </c>
-      <c r="D17" s="16">
-        <v>83</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="34">
-        <v>1</v>
-      </c>
-      <c r="G17" s="34">
-        <v>255</v>
-      </c>
-      <c r="H17" s="34">
-        <v>91</v>
-      </c>
-      <c r="I17" s="34">
-        <f>_xlfn.RANK.AVG(G17,$G$17:$G$30,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="34">
-        <f>_xlfn.RANK.AVG(H17,$H$17:$H$30,0)</f>
-        <v>3</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="18" cm="1">
-        <f t="array" ref="M17">CORREL(_xlfn.RANK.AVG(G17:G30,$G$17:$G$30,0),_xlfn.RANK.AVG(H17:H30,$H$17:$H$30,0))</f>
-        <v>0.55333879843487399</v>
-      </c>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16">
-        <v>232</v>
-      </c>
-      <c r="D18" s="16">
-        <v>92</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="34">
-        <v>2</v>
-      </c>
-      <c r="G18" s="34">
-        <v>240</v>
-      </c>
-      <c r="H18" s="34">
-        <v>89</v>
-      </c>
-      <c r="I18" s="34">
-        <f>_xlfn.RANK.AVG(G18,$G$17:$G$30,0)</f>
-        <v>5</v>
-      </c>
-      <c r="J18" s="34">
-        <f>_xlfn.RANK.AVG(H18,$H$17:$H$30,0)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="18">
-        <f>(M17)^2</f>
-        <v>0.30618382585335013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="34">
-        <v>3</v>
-      </c>
-      <c r="G19" s="34">
-        <v>248</v>
-      </c>
-      <c r="H19" s="34">
-        <v>101</v>
-      </c>
-      <c r="I19" s="34">
-        <f t="shared" ref="I19:I30" si="0">_xlfn.RANK.AVG(G19,$G$17:$G$30,0)</f>
-        <v>2</v>
-      </c>
-      <c r="J19" s="34">
-        <f t="shared" ref="J19:J30" si="1">_xlfn.RANK.AVG(H19,$H$17:$H$30,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="18" cm="1">
-        <f t="array" ref="M19">SLOPE(_xlfn.RANK.AVG(H17:H30,$H$17:$H$30,0),_xlfn.RANK.AVG(G17:G30,$G$17:$G$30,0))</f>
-        <v>0.55088495575221241</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="34">
-        <v>4</v>
-      </c>
-      <c r="G20" s="34">
-        <v>241</v>
-      </c>
-      <c r="H20" s="34">
-        <v>89</v>
-      </c>
-      <c r="I20" s="34">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="J20" s="34">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="18" cm="1">
-        <f t="array" ref="M20">INTERCEPT(_xlfn.RANK.AVG(H17:H30,$H$17:$H$30,0),_xlfn.RANK.AVG(G17:G30,$G$17:$G$30,0))</f>
-        <v>3.3683628318584073</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="34">
-        <v>5</v>
-      </c>
-      <c r="G21" s="34">
-        <v>238</v>
-      </c>
-      <c r="H21" s="34">
-        <v>88</v>
-      </c>
-      <c r="I21" s="34">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J21" s="34">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
+      <c r="E21" s="16">
+        <v>62</v>
+      </c>
+      <c r="F21" s="16">
+        <v>65</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="34">
+      <c r="C22" s="8"/>
+      <c r="D22" s="16">
         <v>6</v>
       </c>
-      <c r="G22" s="34">
-        <v>239</v>
-      </c>
-      <c r="H22" s="34">
-        <v>86</v>
-      </c>
-      <c r="I22" s="34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J22" s="34">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="32" t="s">
+      <c r="E22" s="16">
+        <v>64</v>
+      </c>
+      <c r="F22" s="16">
+        <v>56</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="16">
+        <v>7</v>
+      </c>
+      <c r="E23" s="16">
+        <v>58</v>
+      </c>
+      <c r="F23" s="16">
+        <v>59</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="18">
+        <f>COUNT(E27:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="16">
+        <v>8</v>
+      </c>
+      <c r="E24" s="16">
+        <v>80</v>
+      </c>
+      <c r="F24" s="16">
+        <v>77</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="18" t="e">
+        <f>K17/SQRT((1-K17^2)/(K23-2))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="16">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16">
+        <v>76</v>
+      </c>
+      <c r="F25" s="16">
+        <v>67</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="18" t="e">
+        <f>1-_xlfn.BETA.DIST((ABS(K24)^2*1/(K23-2))/(1+ABS(K24)^2*1/(K23-2)),1/2,(K23-2)/2,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="16">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16">
+        <v>61</v>
+      </c>
+      <c r="F26" s="16">
+        <v>63</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="34">
-        <v>7</v>
-      </c>
-      <c r="G23" s="34">
-        <v>237</v>
-      </c>
-      <c r="H23" s="34">
-        <v>88</v>
-      </c>
-      <c r="I23" s="34">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="J23" s="34">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="18">
-        <f>COUNT(G17:G30)</f>
-        <v>14</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="34">
-        <v>8</v>
-      </c>
-      <c r="G24" s="34">
-        <v>241</v>
-      </c>
-      <c r="H24" s="34">
-        <v>86</v>
-      </c>
-      <c r="I24" s="34">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="J24" s="34">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="18">
-        <f>M17/SQRT((1-M17^2)/(M23-2))</f>
-        <v>2.3012273968342716</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="34">
-        <v>9</v>
-      </c>
-      <c r="G25" s="34">
-        <v>238</v>
-      </c>
-      <c r="H25" s="34">
-        <v>87</v>
-      </c>
-      <c r="I25" s="34">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J25" s="34">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M25" s="18">
-        <f>1-_xlfn.BETA.DIST((ABS(M24)^2*1/(M23-2))/(1+ABS(M24)^2*1/(M23-2)),1/2,(M23-2)/2,1)</f>
-        <v>4.010835880617114E-2</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="34">
-        <v>10</v>
-      </c>
-      <c r="G26" s="34">
-        <v>236</v>
-      </c>
-      <c r="H26" s="34">
-        <v>83</v>
-      </c>
-      <c r="I26" s="34">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J26" s="34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M26" s="18">
-        <f>M17-SQRT((1-M17^2)/(M23-2))*SQRT(_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2)*(M23-2)/(1*(1-_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2))))</f>
-        <v>2.9435043924959436E-2</v>
-      </c>
+      <c r="K26" s="18" t="e">
+        <f>K17-SQRT((1-K17^2)/(K23-2))*SQRT(_xlfn.BETA.INV(1-K22,1/2,(K23-2)/2)*(K23-2)/(1*(1-_xlfn.BETA.INV(1-K22,1/2,(K23-2)/2))))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="34">
-        <v>11</v>
-      </c>
-      <c r="G27" s="34">
-        <v>233</v>
-      </c>
-      <c r="H27" s="34">
-        <v>81</v>
-      </c>
-      <c r="I27" s="34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J27" s="34">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="M27" s="18">
-        <f>M17+SQRT((1-M17^2)/(M23-2))*SQRT(_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2)*(M23-2)/(1*(1-_xlfn.BETA.INV(1-M22,1/2,(M23-2)/2))))</f>
-        <v>1.0772425529447887</v>
-      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="18" t="e">
+        <f>K17+SQRT((1-K17^2)/(K23-2))*SQRT(_xlfn.BETA.INV(1-K22,1/2,(K23-2)/2)*(K23-2)/(1*(1-_xlfn.BETA.INV(1-K22,1/2,(K23-2)/2))))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="34">
-        <v>12</v>
-      </c>
-      <c r="G28" s="34">
-        <v>231</v>
-      </c>
-      <c r="H28" s="34">
-        <v>83</v>
-      </c>
-      <c r="I28" s="34">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J28" s="34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="34">
-        <v>13</v>
-      </c>
-      <c r="G29" s="34">
-        <v>237</v>
-      </c>
-      <c r="H29" s="34">
-        <v>83</v>
-      </c>
-      <c r="I29" s="34">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="J29" s="34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="34">
-        <v>14</v>
-      </c>
-      <c r="G30" s="34">
-        <v>232</v>
-      </c>
-      <c r="H30" s="34">
-        <v>92</v>
-      </c>
-      <c r="I30" s="34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J30" s="34">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="10:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="10:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="10:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="10:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="10:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="10:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-    </row>
-    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+    </row>
+    <row r="61" spans="4:7" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-    </row>
-    <row r="63" spans="6:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="F4:U4"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F9:U9"/>
-    <mergeCell ref="F14:U14"/>
-    <mergeCell ref="F5:U5"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="D4:S4"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D9:S9"/>
+    <mergeCell ref="D14:S14"/>
+    <mergeCell ref="D5:S5"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9121,16 +10894,16 @@
   </sheetPr>
   <dimension ref="B2:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
@@ -9148,7 +10921,7 @@
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="56" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -9172,29 +10945,32 @@
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="K4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="29">
         <v>82</v>
@@ -9203,17 +10979,17 @@
         <v>15</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="K5" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="K5" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="29">
         <v>92.5</v>
@@ -9221,15 +10997,15 @@
       <c r="D6" s="27">
         <v>25</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="29">
         <v>83.2</v>
@@ -9238,17 +11014,17 @@
         <v>17</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="K7" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
+      <c r="K7" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="29">
         <v>97.7</v>
@@ -9256,15 +11032,15 @@
       <c r="D8" s="27">
         <v>28</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="29">
         <v>131.9</v>
@@ -9273,15 +11049,15 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="29">
         <v>141.30000000000001</v>
@@ -9289,18 +11065,21 @@
       <c r="D10" s="27">
         <v>47</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="F10" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="29">
         <v>165.4</v>
@@ -9309,17 +11088,17 @@
         <v>50</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="K11" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="K11" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="29">
         <v>140</v>
@@ -9327,15 +11106,15 @@
       <c r="D12" s="27">
         <v>46</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="29">
         <v>126.7</v>
@@ -9345,7 +11124,7 @@
       </c>
       <c r="E13" s="23"/>
       <c r="K13" s="57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
@@ -9354,7 +11133,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="29">
         <v>97.8</v>
@@ -9370,7 +11149,7 @@
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="29">
         <v>86.2</v>
@@ -9386,7 +11165,7 @@
     </row>
     <row r="16" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="29">
         <v>99.6</v>
@@ -9394,17 +11173,17 @@
       <c r="D16" s="27">
         <v>30</v>
       </c>
-      <c r="K16" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="K16" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="29">
         <v>87</v>
@@ -9413,15 +11192,15 @@
         <v>14</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="29">
         <v>97.5</v>
@@ -9429,15 +11208,15 @@
       <c r="D18" s="27">
         <v>27</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
     </row>
     <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="29">
         <v>88.2</v>
@@ -9446,17 +11225,17 @@
         <v>14</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="29">
         <v>102.7</v>
@@ -9464,15 +11243,15 @@
       <c r="D20" s="27">
         <v>30</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="29">
         <v>123</v>
@@ -9481,12 +11260,12 @@
         <v>43</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -9499,7 +11278,7 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="29">
         <v>146.30000000000001</v>
@@ -9519,7 +11298,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="29">
         <v>160</v>
@@ -9529,7 +11308,7 @@
       </c>
       <c r="E23" s="23"/>
       <c r="J23" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23"/>
@@ -9542,7 +11321,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="29">
         <v>145</v>
@@ -9551,7 +11330,7 @@
         <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K24" s="1">
         <v>0.95766679847859604</v>
@@ -9566,7 +11345,7 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="29">
         <v>131.69999999999999</v>
@@ -9576,7 +11355,7 @@
       </c>
       <c r="E25" s="23"/>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K25" s="1">
         <v>0.91712569690824386</v>
@@ -9591,7 +11370,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="29">
         <v>118</v>
@@ -9600,7 +11379,7 @@
         <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K26" s="1">
         <v>0.91335868313134583</v>
@@ -9615,7 +11394,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" s="29">
         <v>91.2</v>
@@ -9625,7 +11404,7 @@
       </c>
       <c r="E27" s="23"/>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K27" s="1">
         <v>3.5814138201875458</v>
@@ -9640,7 +11419,7 @@
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" s="29">
         <v>104.6</v>
@@ -9679,11 +11458,11 @@
       <c r="R29"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
       <c r="I30" s="25"/>
       <c r="J30" t="s">
         <v>3</v>
@@ -9714,7 +11493,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
@@ -9722,7 +11501,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -9745,7 +11524,7 @@
     </row>
     <row r="33" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K33" s="1">
         <v>22</v>
@@ -9793,10 +11572,10 @@
     <row r="36" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>2</v>
@@ -9805,21 +11584,21 @@
         <v>7</v>
       </c>
       <c r="O36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K37" s="1">
         <v>-19.074108994144268</v>
@@ -9848,7 +11627,7 @@
     </row>
     <row r="38" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J38" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K38" s="2">
         <v>0.4500013198975954</v>
@@ -9910,7 +11689,7 @@
     </row>
     <row r="42" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -9934,13 +11713,13 @@
     </row>
     <row r="44" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J44" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -10358,7 +12137,7 @@
       <c r="R68"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="F19:I21"/>
     <mergeCell ref="K16:O18"/>
@@ -10368,10 +12147,792 @@
     <mergeCell ref="K7:O10"/>
     <mergeCell ref="K11:O12"/>
     <mergeCell ref="K13:O14"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B9711A-732C-478C-AC33-C7228E2F9FD3}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B2:X63"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3" style="4" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35">
+        <v>72</v>
+      </c>
+      <c r="D5" s="35">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="35">
+        <v>57</v>
+      </c>
+      <c r="D6" s="35">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35">
+        <v>77</v>
+      </c>
+      <c r="D7" s="35">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35">
+        <v>51</v>
+      </c>
+      <c r="D8" s="35">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="35">
+        <v>5</v>
+      </c>
+      <c r="C9" s="35">
+        <v>81</v>
+      </c>
+      <c r="D9" s="35">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
+        <v>6</v>
+      </c>
+      <c r="C10" s="35">
+        <v>81</v>
+      </c>
+      <c r="D10" s="35">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="35">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35">
+        <v>60</v>
+      </c>
+      <c r="D11" s="35">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="35">
+        <v>8</v>
+      </c>
+      <c r="C12" s="35">
+        <v>84</v>
+      </c>
+      <c r="D12" s="35">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="35">
+        <v>9</v>
+      </c>
+      <c r="C13" s="35">
+        <v>57</v>
+      </c>
+      <c r="D13" s="35">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
+        <v>10</v>
+      </c>
+      <c r="C14" s="35">
+        <v>71</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
+        <v>11</v>
+      </c>
+      <c r="C15" s="35">
+        <v>77</v>
+      </c>
+      <c r="D15" s="35">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35">
+        <v>12</v>
+      </c>
+      <c r="C16" s="35">
+        <v>87</v>
+      </c>
+      <c r="D16" s="35">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="G16" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="35">
+        <v>13</v>
+      </c>
+      <c r="C17" s="35">
+        <v>48</v>
+      </c>
+      <c r="D17" s="35">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="G17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="18">
+        <f>PEARSON(C5:C31,D5:D31)</f>
+        <v>-0.15469757211913193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="35">
+        <v>14</v>
+      </c>
+      <c r="C18" s="35">
+        <v>79</v>
+      </c>
+      <c r="D18" s="35">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="G18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="18">
+        <f>CORREL(D5:D31,C5:C31)^2</f>
+        <v>2.3931338819554025E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35">
+        <v>15</v>
+      </c>
+      <c r="C19" s="35">
+        <v>66</v>
+      </c>
+      <c r="D19" s="35">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="G19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="18">
+        <f>SLOPE(D5:D31,C5:C31)</f>
+        <v>-2.3282002453628253E-2</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="35">
+        <v>16</v>
+      </c>
+      <c r="C20" s="35">
+        <v>47</v>
+      </c>
+      <c r="D20" s="35">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="G20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="18">
+        <f>INTERCEPT(D5:D31,C5:C31)</f>
+        <v>6.8130756413308191</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="35">
+        <v>17</v>
+      </c>
+      <c r="C21" s="35">
+        <v>49</v>
+      </c>
+      <c r="D21" s="35">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="35">
+        <v>18</v>
+      </c>
+      <c r="C22" s="35">
+        <v>70</v>
+      </c>
+      <c r="D22" s="35">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="G22" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="66"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="35">
+        <v>19</v>
+      </c>
+      <c r="C23" s="35">
+        <v>47</v>
+      </c>
+      <c r="D23" s="35">
+        <v>7</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="G23" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="35">
+        <v>20</v>
+      </c>
+      <c r="C24" s="35">
+        <v>52</v>
+      </c>
+      <c r="D24" s="35">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="G24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="18">
+        <f>COUNT(C5:C31)</f>
+        <v>27</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="35">
+        <v>21</v>
+      </c>
+      <c r="C25" s="35">
+        <v>61</v>
+      </c>
+      <c r="D25" s="35">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="G25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="18">
+        <f>H17/SQRT((1-H17^2)/(H24-2))</f>
+        <v>-0.78291266318853425</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="35">
+        <v>22</v>
+      </c>
+      <c r="C26" s="35">
+        <v>61</v>
+      </c>
+      <c r="D26" s="35">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="G26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="18">
+        <f>1-_xlfn.BETA.DIST((ABS(H25)^2*1/(H24-2))/(1+ABS(H25)^2*1/(H24-2)),1/2,(H24-2)/2,1)</f>
+        <v>0.44103217355314805</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="35">
+        <v>23</v>
+      </c>
+      <c r="C27" s="35">
+        <v>74</v>
+      </c>
+      <c r="D27" s="35">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="G27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="18">
+        <f>H17-SQRT((1-H17^2)/(H24-2))*SQRT(_xlfn.BETA.INV(1-H23,1/2,(H24-2)/2)*(H24-2)/(1*(1-_xlfn.BETA.INV(1-H23,1/2,(H24-2)/2))))</f>
+        <v>-0.56164668506247695</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="35">
+        <v>24</v>
+      </c>
+      <c r="C28" s="35">
+        <v>51</v>
+      </c>
+      <c r="D28" s="35">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="G28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="18">
+        <f>H17+SQRT((1-H17^2)/(H24-2))*SQRT(_xlfn.BETA.INV(1-H23,1/2,(H24-2)/2)*(H24-2)/(1*(1-_xlfn.BETA.INV(1-H23,1/2,(H24-2)/2))))</f>
+        <v>0.25225154082421308</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="35">
+        <v>25</v>
+      </c>
+      <c r="C29" s="35">
+        <v>73</v>
+      </c>
+      <c r="D29" s="35">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="35">
+        <v>26</v>
+      </c>
+      <c r="C30" s="35">
+        <v>64</v>
+      </c>
+      <c r="D30" s="35">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="35">
+        <v>27</v>
+      </c>
+      <c r="C31" s="35">
+        <v>62</v>
+      </c>
+      <c r="D31" s="35">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+    </row>
+    <row r="61" spans="6:9" ht="45.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="6:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F9:P9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:P14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="F4:P4"/>
+    <mergeCell ref="R4:V6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>